--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -43,16 +43,16 @@
     <t xml:space="preserve">+79875324724</t>
   </si>
   <si>
-    <t xml:space="preserve">Вова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Привет, мяу!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.12.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:08:12</t>
+    <t xml:space="preserve">Неизвестный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Даааа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.12.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:39:42</t>
   </si>
 </sst>
 </file>
@@ -354,13 +354,13 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="68.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="11.22"/>
@@ -406,6 +406,9 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1048554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -44,12 +44,36 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F076"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F076"/>
+        <bgColor rgb="FFF0F076"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,7 +95,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -91,6 +115,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
       <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -110,6 +146,25 @@
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,70 +176,62 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFF0F076"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -371,151 +418,159 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="30.57" customWidth="1" style="6" min="1" max="1"/>
-    <col width="13.49" customWidth="1" style="6" min="2" max="2"/>
-    <col width="68.63" customWidth="1" style="7" min="3" max="3"/>
-    <col width="9.789999999999999" customWidth="1" style="8" min="4" max="4"/>
-    <col width="11.22" customWidth="1" style="9" min="5" max="5"/>
-    <col width="13.34" customWidth="1" style="6" min="6" max="6"/>
-    <col width="8.449999999999999" customWidth="1" style="6" min="8" max="16383"/>
-    <col width="11.53" customWidth="1" style="6" min="16384" max="16384"/>
+    <col width="30.57" customWidth="1" style="10" min="1" max="1"/>
+    <col width="13.49" customWidth="1" style="10" min="2" max="2"/>
+    <col width="53.35" customWidth="1" style="11" min="3" max="3"/>
+    <col width="9.789999999999999" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.22" customWidth="1" style="13" min="5" max="5"/>
+    <col width="13.34" customWidth="1" style="10" min="6" max="6"/>
+    <col width="8.449999999999999" customWidth="1" style="10" min="8" max="16383"/>
+    <col width="11.53" customWidth="1" style="10" min="16384" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="10">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="14">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Номер телефона</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Имя маячка</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Сообщение</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Отклонения</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1" s="10">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="G1" s="16" t="inlineStr">
+        <is>
+          <t>Отклонения</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" s="14">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>Мяяяяу</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E2" s="13" t="inlineStr">
         <is>
           <t>15:03:29</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="13.7" customHeight="1" s="10">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="F2" s="20" t="inlineStr"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="14">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C3" s="0" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>Hihi</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>15:19:27</t>
         </is>
       </c>
-    </row>
-    <row r="4" ht="13.7" customHeight="1" s="10">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="F3" s="20" t="inlineStr"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="14">
+      <c r="A4" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>15:21:21</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="13.7" customHeight="1" s="10">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="F4" s="20" t="inlineStr"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="14">
+      <c r="A5" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" s="18" t="inlineStr">
         <is>
           <t>G
 G
@@ -523,193 +578,200 @@
 Это все?</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>15:23:41</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="13.7" customHeight="1" s="10">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="F5" s="20" t="inlineStr"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="14">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>Ххх</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>15:25:14</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="13.7" customHeight="1" s="10">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="F6" s="20" t="inlineStr"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="14">
+      <c r="A7" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>HEY</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E7" s="16" t="inlineStr">
         <is>
           <t>15:27:19</t>
         </is>
       </c>
-    </row>
-    <row r="8" ht="13.7" customHeight="1" s="10">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
+      <c r="F7" s="20" t="inlineStr"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="14">
+      <c r="A8" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C8" s="0" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>Hey you</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="D8" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E8" s="16" t="inlineStr">
         <is>
           <t>15:28:05</t>
         </is>
       </c>
-    </row>
-    <row r="9" ht="13.7" customHeight="1" s="10">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
+      <c r="F8" s="20" t="inlineStr"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="14">
+      <c r="A9" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C9" s="0" t="inlineStr">
+      <c r="C9" s="18" t="inlineStr">
         <is>
           <t>ХАХХАХАХАХААХАХААХХАХАХАХАХАХАХАХАХАХАХА НУ ЛАДНО
 А так</t>
         </is>
       </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E9" s="16" t="inlineStr">
         <is>
           <t>15:29:16</t>
         </is>
       </c>
-    </row>
-    <row r="10" ht="13.7" customHeight="1" s="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
+      <c r="F9" s="20" t="inlineStr"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="14">
+      <c r="A10" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C10" s="0" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>Hahhahahahaha</t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="D10" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>15:32:13</t>
         </is>
       </c>
-    </row>
-    <row r="11" ht="13.7" customHeight="1" s="10">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
+      <c r="F10" s="20" t="inlineStr"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="14">
+      <c r="A11" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Неизвестный</t>
         </is>
       </c>
-      <c r="C11" s="0" t="inlineStr">
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>Привет
 И все?</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E11" s="16" t="inlineStr">
         <is>
           <t>15:35:16</t>
         </is>
       </c>
-    </row>
-    <row r="12" ht="13.7" customHeight="1" s="10">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="F11" s="20" t="inlineStr"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="14">
+      <c r="A12" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>Неизвестный</t>
         </is>
       </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="C12" s="18" t="inlineStr">
         <is>
           <t>Сообщения
 Если
@@ -717,73 +779,202 @@
 Ладно</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="D12" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E12" s="16" t="inlineStr">
         <is>
           <t>15:37:06</t>
         </is>
       </c>
-    </row>
-    <row r="13" ht="13.7" customHeight="1" s="10">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="14">
+      <c r="A13" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
         <is>
           <t>Неизвестный</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="16" t="inlineStr">
         <is>
           <t>Дааа</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>15:38:24</t>
         </is>
       </c>
-    </row>
-    <row r="1048548" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048549" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048550" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048551" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048552" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048553" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048554" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048555" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048556" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048557" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048558" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048559" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048560" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048561" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048562" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048563" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048564" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048565" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048566" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048567" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048568" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048569" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048570" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048571" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048572" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048573" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048574" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048575" ht="12.75" customHeight="1" s="10"/>
-    <row r="1048576" ht="12.75" customHeight="1" s="10"/>
+      <c r="F13" s="20" t="inlineStr"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="14">
+      <c r="A14" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>Неизвестный</t>
+        </is>
+      </c>
+      <c r="C14" s="18" t="inlineStr">
+        <is>
+          <t>Привет
+Как дела?)</t>
+        </is>
+      </c>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E14" s="16" t="inlineStr">
+        <is>
+          <t>16:46:42</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="inlineStr"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="14">
+      <c r="A15" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Неизвестный</t>
+        </is>
+      </c>
+      <c r="C15" s="18" t="inlineStr">
+        <is>
+          <t>Hi
+Сообщение</t>
+        </is>
+      </c>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>17:06:42</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="inlineStr"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="14">
+      <c r="A16" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B16" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C16" s="18" t="inlineStr">
+        <is>
+          <t>АвтоФон SE-Маяк v6.3q
+22-06-2018 12:03:14
+Спутн: 0 за 34с.
+E043.600066</t>
+        </is>
+      </c>
+      <c r="D16" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E16" s="16" t="inlineStr">
+        <is>
+          <t>19:37:54</t>
+        </is>
+      </c>
+      <c r="F16" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GPS! </t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="13.7" customHeight="1" s="14">
+      <c r="A17" s="16" t="inlineStr">
+        <is>
+          <t>5118</t>
+        </is>
+      </c>
+      <c r="B17" s="16" t="inlineStr">
+        <is>
+          <t>5118</t>
+        </is>
+      </c>
+      <c r="C17" s="16" t="inlineStr">
+        <is>
+          <t>簆②灰汩捡瑩潮⽶湤⹷慰⹭浳⵭敳獡来´螯蒌芘報〰㐹〱〱〰〱㈴ㄲ〸ㄶ㌹〶㄰㘲〰㄀趐荨瑴瀺⼯浭獣洺㠰〲⼰〴㤰㄰㄰〰ㄲ㐱㈰㠱㘳㤰㘱〶㈰〱
+ց̂ꌀ褎耫㜹㠷㔳㈴㜲㐀誀踂˔</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>19:39:17</t>
+        </is>
+      </c>
+      <c r="F17" s="22" t="inlineStr"/>
+    </row>
+    <row r="36" ht="13.8" customHeight="1" s="14"/>
+    <row r="123" ht="13.8" customHeight="1" s="14"/>
+    <row r="1048545" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048546" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048547" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048548" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048549" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048550" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048551" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048552" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048553" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048554" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048555" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048556" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048557" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048558" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048559" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048560" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048561" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048562" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048563" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048564" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048565" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048566" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048567" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048568" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048569" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048570" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048571" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048572" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048573" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048574" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048575" ht="12.75" customHeight="1" s="14"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="14"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -940,6 +940,92 @@
         </is>
       </c>
       <c r="F17" s="22" t="inlineStr"/>
+    </row>
+    <row r="18" ht="13.7" customHeight="1" s="14">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>+79875548921</t>
+        </is>
+      </c>
+      <c r="B18" s="16" t="inlineStr">
+        <is>
+          <t>Витя</t>
+        </is>
+      </c>
+      <c r="C18" s="16" t="inlineStr">
+        <is>
+          <t>Че
+Вова я знаю что этоты
+Ты напесал мяу</t>
+        </is>
+      </c>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>18:55:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="13.7" customHeight="1" s="14">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B19" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>Оно работает!!!!</t>
+        </is>
+      </c>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>18:55:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="13.7" customHeight="1" s="14">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ну???
+You are loh
+Gigi
+Ddddd</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>09.12.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20:51:31</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="14"/>
     <row r="123" ht="13.8" customHeight="1" s="14"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -998,17 +998,17 @@
       </c>
     </row>
     <row r="20" ht="13.7" customHeight="1" s="14">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>Вова</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
         <is>
           <t>Ну???
 You are loh
@@ -1016,14 +1016,74 @@
 Ddddd</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="16" t="inlineStr">
         <is>
           <t>09.12.24</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="16" t="inlineStr">
         <is>
           <t>20:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="13.7" customHeight="1" s="14">
+      <c r="A21" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>Ну???
+You are loh
+Gigi
+Ddddd
+Ты лох
+Тыы</t>
+        </is>
+      </c>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>09.12.24</t>
+        </is>
+      </c>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>22:01:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="13.7" customHeight="1" s="14">
+      <c r="A22" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B22" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>Что что чтт
+Что????</t>
+        </is>
+      </c>
+      <c r="D22" s="16" t="inlineStr">
+        <is>
+          <t>09.12.24</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>22:02:43</t>
         </is>
       </c>
     </row>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -43,8 +43,15 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Microsoft YaHei"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -55,12 +62,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F076"/>
-        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
@@ -95,7 +96,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -125,7 +126,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -140,16 +147,16 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -158,13 +165,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,62 +180,70 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFF0F076"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -418,53 +430,54 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="30.57" customWidth="1" style="10" min="1" max="1"/>
-    <col width="13.49" customWidth="1" style="10" min="2" max="2"/>
-    <col width="53.35" customWidth="1" style="11" min="3" max="3"/>
-    <col width="9.789999999999999" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.22" customWidth="1" style="13" min="5" max="5"/>
-    <col width="13.34" customWidth="1" style="10" min="6" max="6"/>
-    <col width="8.449999999999999" customWidth="1" style="10" min="8" max="16383"/>
-    <col width="11.53" customWidth="1" style="10" min="16384" max="16384"/>
+    <col width="30.57" customWidth="1" style="12" min="1" max="1"/>
+    <col width="13.49" customWidth="1" style="12" min="2" max="2"/>
+    <col width="53.35" customWidth="1" style="13" min="3" max="3"/>
+    <col width="9.789999999999999" customWidth="1" style="14" min="4" max="4"/>
+    <col width="11.22" customWidth="1" style="15" min="5" max="5"/>
+    <col width="13.34" customWidth="1" style="12" min="6" max="6"/>
+    <col width="12.65" customWidth="1" style="16" min="7" max="7"/>
+    <col width="8.449999999999999" customWidth="1" style="12" min="8" max="16383"/>
+    <col width="11.53" customWidth="1" style="12" min="16384" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="14">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="13.5" customHeight="1" s="17">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Номер телефона</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Имя маячка</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="18" t="inlineStr">
         <is>
           <t>Сообщение</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="E1" s="13" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>Время</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>Отклонения</t>
         </is>
@@ -475,41 +488,41 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="14">
-      <c r="A2" s="10" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
+    <row r="2" ht="13.5" customHeight="1" s="17">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>Мяяяяу</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
-        <is>
-          <t>08.12.24</t>
-        </is>
-      </c>
-      <c r="E2" s="13" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>08.12.24</t>
+        </is>
+      </c>
+      <c r="E2" s="15" t="inlineStr">
         <is>
           <t>15:03:29</t>
         </is>
       </c>
-      <c r="F2" s="20" t="inlineStr"/>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="14">
+      <c r="F2" s="19" t="inlineStr"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="17">
       <c r="A3" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
@@ -529,15 +542,15 @@
           <t>15:19:27</t>
         </is>
       </c>
-      <c r="F3" s="20" t="inlineStr"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="14">
+      <c r="F3" s="19" t="inlineStr"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" s="17">
       <c r="A4" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
@@ -557,20 +570,20 @@
           <t>15:21:21</t>
         </is>
       </c>
-      <c r="F4" s="20" t="inlineStr"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="14">
+      <c r="F4" s="19" t="inlineStr"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="17">
       <c r="A5" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C5" s="18" t="inlineStr">
+      <c r="C5" s="20" t="inlineStr">
         <is>
           <t>G
 G
@@ -588,15 +601,15 @@
           <t>15:23:41</t>
         </is>
       </c>
-      <c r="F5" s="20" t="inlineStr"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="14">
+      <c r="F5" s="19" t="inlineStr"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="17">
       <c r="A6" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
@@ -616,15 +629,15 @@
           <t>15:25:14</t>
         </is>
       </c>
-      <c r="F6" s="20" t="inlineStr"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="14">
+      <c r="F6" s="19" t="inlineStr"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="17">
       <c r="A7" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
@@ -644,15 +657,15 @@
           <t>15:27:19</t>
         </is>
       </c>
-      <c r="F7" s="20" t="inlineStr"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="14">
+      <c r="F7" s="19" t="inlineStr"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="17">
       <c r="A8" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
@@ -672,20 +685,20 @@
           <t>15:28:05</t>
         </is>
       </c>
-      <c r="F8" s="20" t="inlineStr"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="14">
+      <c r="F8" s="19" t="inlineStr"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="17">
       <c r="A9" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B9" s="10" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
       </c>
-      <c r="C9" s="18" t="inlineStr">
+      <c r="C9" s="20" t="inlineStr">
         <is>
           <t>ХАХХАХАХАХААХАХААХХАХАХАХАХАХАХАХАХАХАХА НУ ЛАДНО
 А так</t>
@@ -701,15 +714,15 @@
           <t>15:29:16</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" s="14">
+      <c r="F9" s="19" t="inlineStr"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="17">
       <c r="A10" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Вооова</t>
         </is>
@@ -729,20 +742,20 @@
           <t>15:32:13</t>
         </is>
       </c>
-      <c r="F10" s="20" t="inlineStr"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" s="14">
+      <c r="F10" s="19" t="inlineStr"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="17">
       <c r="A11" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Неизвестный</t>
         </is>
       </c>
-      <c r="C11" s="18" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>Привет
 И все?</t>
@@ -758,20 +771,20 @@
           <t>15:35:16</t>
         </is>
       </c>
-      <c r="F11" s="20" t="inlineStr"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="14">
+      <c r="F11" s="19" t="inlineStr"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="17">
       <c r="A12" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>Неизвестный</t>
         </is>
       </c>
-      <c r="C12" s="18" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>Сообщения
 Если
@@ -789,15 +802,15 @@
           <t>15:37:06</t>
         </is>
       </c>
-      <c r="F12" s="20" t="inlineStr"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="14">
+      <c r="F12" s="19" t="inlineStr"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="17">
       <c r="A13" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>Неизвестный</t>
         </is>
@@ -817,20 +830,20 @@
           <t>15:38:24</t>
         </is>
       </c>
-      <c r="F13" s="20" t="inlineStr"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="14">
+      <c r="F13" s="19" t="inlineStr"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="17">
       <c r="A14" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>Неизвестный</t>
         </is>
       </c>
-      <c r="C14" s="18" t="inlineStr">
+      <c r="C14" s="20" t="inlineStr">
         <is>
           <t>Привет
 Как дела?)</t>
@@ -846,20 +859,20 @@
           <t>16:46:42</t>
         </is>
       </c>
-      <c r="F14" s="20" t="inlineStr"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="14">
+      <c r="F14" s="19" t="inlineStr"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="17">
       <c r="A15" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>Неизвестный</t>
         </is>
       </c>
-      <c r="C15" s="18" t="inlineStr">
+      <c r="C15" s="20" t="inlineStr">
         <is>
           <t>Hi
 Сообщение</t>
@@ -875,9 +888,9 @@
           <t>17:06:42</t>
         </is>
       </c>
-      <c r="F15" s="20" t="inlineStr"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="14">
+      <c r="F15" s="19" t="inlineStr"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="17">
       <c r="A16" s="16" t="inlineStr">
         <is>
           <t>+79875324724</t>
@@ -888,7 +901,7 @@
           <t>Вова</t>
         </is>
       </c>
-      <c r="C16" s="18" t="inlineStr">
+      <c r="C16" s="20" t="inlineStr">
         <is>
           <t>АвтоФон SE-Маяк v6.3q
 22-06-2018 12:03:14
@@ -912,7 +925,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="13.7" customHeight="1" s="14">
+    <row r="17" ht="13.5" customHeight="1" s="17">
       <c r="A17" s="16" t="inlineStr">
         <is>
           <t>5118</t>
@@ -923,7 +936,7 @@
           <t>5118</t>
         </is>
       </c>
-      <c r="C17" s="16" t="inlineStr">
+      <c r="C17" s="22" t="inlineStr">
         <is>
           <t>簆②灰汩捡瑩潮⽶湤⹷慰⹭浳⵭敳獡来´螯蒌芘報〰㐹〱〱〰〱㈴ㄲ〸ㄶ㌹〶㄰㘲〰㄀趐荨瑴瀺⼯浭獣洺㠰〲⼰〴㤰㄰㄰〰ㄲ㐱㈰㠱㘳㤰㘱〶㈰〱
 ց̂ꌀ褎耫㜹㠷㔳㈴㜲㐀誀踂˔</t>
@@ -939,42 +952,292 @@
           <t>19:39:17</t>
         </is>
       </c>
-      <c r="F17" s="22" t="inlineStr"/>
-    </row>
-    <row r="36" ht="13.8" customHeight="1" s="14"/>
-    <row r="123" ht="13.8" customHeight="1" s="14"/>
-    <row r="1048545" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048546" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048547" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048548" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048549" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048550" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048551" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048552" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048553" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048554" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048555" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048556" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048557" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048558" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048559" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048560" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048561" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048562" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048563" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048564" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048565" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048566" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048567" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048568" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048569" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048570" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048571" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048572" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048573" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048574" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048575" ht="12.75" customHeight="1" s="14"/>
-    <row r="1048576" ht="12.75" customHeight="1" s="14"/>
+      <c r="F17" s="19" t="inlineStr"/>
+    </row>
+    <row r="18" ht="13.7" customHeight="1" s="17">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B18" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C18" s="16" t="inlineStr">
+        <is>
+          <t>Тыыы
+Привет</t>
+        </is>
+      </c>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>12:40:56</t>
+        </is>
+      </c>
+      <c r="F18" s="23" t="inlineStr"/>
+    </row>
+    <row r="19" ht="13.7" customHeight="1" s="17">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B19" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>Мяу</t>
+        </is>
+      </c>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>12:43:31</t>
+        </is>
+      </c>
+      <c r="F19" s="23" t="inlineStr"/>
+    </row>
+    <row r="20" ht="13.7" customHeight="1" s="17">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B20" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>М ещё мая
+У
+Мяяяяя</t>
+        </is>
+      </c>
+      <c r="D20" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>12:44:33</t>
+        </is>
+      </c>
+      <c r="F20" s="23" t="inlineStr"/>
+    </row>
+    <row r="21" ht="13.7" customHeight="1" s="17">
+      <c r="A21" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>Р
+Рооо</t>
+        </is>
+      </c>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>12:47:43</t>
+        </is>
+      </c>
+      <c r="F21" s="23" t="inlineStr"/>
+    </row>
+    <row r="22" ht="13.7" customHeight="1" s="17">
+      <c r="A22" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B22" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>Е</t>
+        </is>
+      </c>
+      <c r="D22" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>12:49:59</t>
+        </is>
+      </c>
+      <c r="F22" s="23" t="inlineStr"/>
+    </row>
+    <row r="23" ht="13.7" customHeight="1" s="17">
+      <c r="A23" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B23" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C23" s="16" t="inlineStr">
+        <is>
+          <t>Г</t>
+        </is>
+      </c>
+      <c r="D23" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E23" s="16" t="inlineStr">
+        <is>
+          <t>12:58:48</t>
+        </is>
+      </c>
+      <c r="F23" s="23" t="inlineStr"/>
+    </row>
+    <row r="24" ht="13.7" customHeight="1" s="17">
+      <c r="A24" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B24" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>Сообщение 1
+Мяяяяя
+Мммяяя
+Мя
+Мяя
+Мяяя
+Мяяяя
+Мяяяя
+Мяяяяя
+Мяяяяяяя
+Мяяяяяяяя
+Мяяяяяя
+Мя
+Мяяяяя
+Мяяяя
+Мааа
+Алаоа
+Лклуоа
+Лелелвш
+Атковшмо
+Лкос
+Луонщ
+Лвьлп</t>
+        </is>
+      </c>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E24" s="16" t="inlineStr">
+        <is>
+          <t>13:40:34</t>
+        </is>
+      </c>
+      <c r="F24" s="23" t="inlineStr"/>
+    </row>
+    <row r="25" ht="13.7" customHeight="1" s="17">
+      <c r="A25" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B25" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C25" s="16" t="inlineStr">
+        <is>
+          <t>Лошадь!</t>
+        </is>
+      </c>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E25" s="16" t="inlineStr">
+        <is>
+          <t>13:43:17</t>
+        </is>
+      </c>
+      <c r="F25" s="23" t="inlineStr"/>
+    </row>
+    <row r="36" ht="13.5" customHeight="1" s="17"/>
+    <row r="123" ht="13.5" customHeight="1" s="17"/>
+    <row r="1048545" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048546" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048547" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048548" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048549" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048550" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048551" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048552" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048553" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048554" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048555" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048556" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048557" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048558" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048559" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048560" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048561" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048562" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048563" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048564" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048565" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048566" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048567" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048568" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048569" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048570" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048571" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048572" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048573" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048574" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048575" ht="12.75" customHeight="1" s="17"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="17"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1204,7 +1204,336 @@
       </c>
       <c r="F25" s="23" t="inlineStr"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1" s="17"/>
+    <row r="26" ht="13.7" customHeight="1" s="17">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B26" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C26" s="16" t="inlineStr">
+        <is>
+          <t>Мяу мяу
+Не мяу
+К</t>
+        </is>
+      </c>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E26" s="16" t="inlineStr">
+        <is>
+          <t>14:38:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="13.7" customHeight="1" s="17">
+      <c r="A27" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B27" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C27" s="16" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="D27" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E27" s="16" t="inlineStr">
+        <is>
+          <t>14:41:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="13.7" customHeight="1" s="17">
+      <c r="A28" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B28" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>Тпк
+Н</t>
+        </is>
+      </c>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E28" s="16" t="inlineStr">
+        <is>
+          <t>14:43:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="13.7" customHeight="1" s="17">
+      <c r="A29" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B29" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C29" s="16" t="inlineStr">
+        <is>
+          <t>А</t>
+        </is>
+      </c>
+      <c r="D29" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E29" s="16" t="inlineStr">
+        <is>
+          <t>14:45:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="13.7" customHeight="1" s="17">
+      <c r="A30" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B30" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C30" s="16" t="inlineStr">
+        <is>
+          <t>О</t>
+        </is>
+      </c>
+      <c r="D30" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E30" s="16" t="inlineStr">
+        <is>
+          <t>14:46:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="13.7" customHeight="1" s="17">
+      <c r="A31" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B31" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C31" s="16" t="inlineStr">
+        <is>
+          <t>С1
+C12</t>
+        </is>
+      </c>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E31" s="16" t="inlineStr">
+        <is>
+          <t>14:49:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="13.7" customHeight="1" s="17">
+      <c r="A32" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B32" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>B
+Мя</t>
+        </is>
+      </c>
+      <c r="D32" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E32" s="16" t="inlineStr">
+        <is>
+          <t>14:50:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="13.7" customHeight="1" s="17">
+      <c r="A33" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B33" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>Здравствуйте
+Что</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E33" s="16" t="inlineStr">
+        <is>
+          <t>14:51:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="13.7" customHeight="1" s="17">
+      <c r="A34" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B34" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>Что за</t>
+        </is>
+      </c>
+      <c r="D34" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E34" s="16" t="inlineStr">
+        <is>
+          <t>14:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="13.7" customHeight="1" s="17">
+      <c r="A35" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B35" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C35" s="16" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E35" s="16" t="inlineStr">
+        <is>
+          <t>14:55:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="13.7" customHeight="1" s="17">
+      <c r="A36" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B36" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C36" s="16" t="inlineStr">
+        <is>
+          <t>Мм</t>
+        </is>
+      </c>
+      <c r="D36" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E36" s="16" t="inlineStr">
+        <is>
+          <t>14:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="13.7" customHeight="1" s="17">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Рл</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:58:35</t>
+        </is>
+      </c>
+    </row>
     <row r="123" ht="13.5" customHeight="1" s="17"/>
     <row r="1048545" ht="12.75" customHeight="1" s="17"/>
     <row r="1048546" ht="12.75" customHeight="1" s="17"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1508,29 +1508,56 @@
       </c>
     </row>
     <row r="37" ht="13.7" customHeight="1" s="17">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="16" t="inlineStr">
         <is>
           <t>002B00370039003800370035003300320034003700320034</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="16" t="inlineStr">
         <is>
           <t>002B00370039003800370035003300320034003700320034</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="16" t="inlineStr">
         <is>
           <t>Рл</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>10.12.24</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E37" s="16" t="inlineStr">
         <is>
           <t>14:58:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="13.7" customHeight="1" s="17">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ро</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15:02:55</t>
         </is>
       </c>
     </row>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1535,29 +1535,304 @@
       </c>
     </row>
     <row r="38" ht="13.7" customHeight="1" s="17">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>002B00370039003800370035003300320034003700320034</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002B00370039003800370035003300320034003700320034</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="A38" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B38" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C38" s="16" t="inlineStr">
         <is>
           <t>Ро</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>10.12.24</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E38" s="16" t="inlineStr">
         <is>
           <t>15:02:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="13.7" customHeight="1" s="17">
+      <c r="A39" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B39" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C39" s="16" t="inlineStr">
+        <is>
+          <t>Ррррр</t>
+        </is>
+      </c>
+      <c r="D39" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E39" s="16" t="inlineStr">
+        <is>
+          <t>15:06:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="13.7" customHeight="1" s="17">
+      <c r="A40" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B40" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C40" s="16" t="inlineStr">
+        <is>
+          <t>Сц
+C1</t>
+        </is>
+      </c>
+      <c r="D40" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E40" s="16" t="inlineStr">
+        <is>
+          <t>15:07:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="13.7" customHeight="1" s="17">
+      <c r="A41" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B41" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C41" s="16" t="inlineStr">
+        <is>
+          <t>C2
+С4
+П</t>
+        </is>
+      </c>
+      <c r="D41" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E41" s="16" t="inlineStr">
+        <is>
+          <t>15:14:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="13.7" customHeight="1" s="17">
+      <c r="A42" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B42" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C42" s="16" t="inlineStr">
+        <is>
+          <t>Иау</t>
+        </is>
+      </c>
+      <c r="D42" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E42" s="16" t="inlineStr">
+        <is>
+          <t>15:15:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="13.7" customHeight="1" s="17">
+      <c r="A43" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B43" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C43" s="16" t="inlineStr">
+        <is>
+          <t>Е
+О
+Лох</t>
+        </is>
+      </c>
+      <c r="D43" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E43" s="16" t="inlineStr">
+        <is>
+          <t>15:17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="13.7" customHeight="1" s="17">
+      <c r="A44" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B44" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C44" s="16" t="inlineStr">
+        <is>
+          <t>Сй</t>
+        </is>
+      </c>
+      <c r="D44" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E44" s="16" t="inlineStr">
+        <is>
+          <t>15:20:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="13.7" customHeight="1" s="17">
+      <c r="A45" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B45" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C45" s="16" t="inlineStr">
+        <is>
+          <t>Что мяу?</t>
+        </is>
+      </c>
+      <c r="D45" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E45" s="16" t="inlineStr">
+        <is>
+          <t>15:20:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="13.7" customHeight="1" s="17">
+      <c r="A46" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B46" s="16" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C46" s="16" t="inlineStr">
+        <is>
+          <t>Мяу</t>
+        </is>
+      </c>
+      <c r="D46" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E46" s="16" t="inlineStr">
+        <is>
+          <t>16:06:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="13.7" customHeight="1" s="17">
+      <c r="A47" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B47" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C47" s="16" t="inlineStr">
+        <is>
+          <t>Мяу 2</t>
+        </is>
+      </c>
+      <c r="D47" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E47" s="16" t="inlineStr">
+        <is>
+          <t>16:08:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="13.7" customHeight="1" s="17">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Мяу3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>16:11:03</t>
         </is>
       </c>
     </row>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1232,6 +1232,7 @@
           <t>14:38:27</t>
         </is>
       </c>
+      <c r="F26" s="23" t="inlineStr"/>
     </row>
     <row r="27" ht="13.7" customHeight="1" s="17">
       <c r="A27" s="16" t="inlineStr">
@@ -1259,6 +1260,7 @@
           <t>14:41:26</t>
         </is>
       </c>
+      <c r="F27" s="23" t="inlineStr"/>
     </row>
     <row r="28" ht="13.7" customHeight="1" s="17">
       <c r="A28" s="16" t="inlineStr">
@@ -1287,6 +1289,7 @@
           <t>14:43:20</t>
         </is>
       </c>
+      <c r="F28" s="23" t="inlineStr"/>
     </row>
     <row r="29" ht="13.7" customHeight="1" s="17">
       <c r="A29" s="16" t="inlineStr">
@@ -1314,6 +1317,7 @@
           <t>14:45:21</t>
         </is>
       </c>
+      <c r="F29" s="23" t="inlineStr"/>
     </row>
     <row r="30" ht="13.7" customHeight="1" s="17">
       <c r="A30" s="16" t="inlineStr">
@@ -1341,6 +1345,7 @@
           <t>14:46:12</t>
         </is>
       </c>
+      <c r="F30" s="23" t="inlineStr"/>
     </row>
     <row r="31" ht="13.7" customHeight="1" s="17">
       <c r="A31" s="16" t="inlineStr">
@@ -1369,6 +1374,7 @@
           <t>14:49:22</t>
         </is>
       </c>
+      <c r="F31" s="23" t="inlineStr"/>
     </row>
     <row r="32" ht="13.7" customHeight="1" s="17">
       <c r="A32" s="16" t="inlineStr">
@@ -1397,6 +1403,7 @@
           <t>14:50:10</t>
         </is>
       </c>
+      <c r="F32" s="23" t="inlineStr"/>
     </row>
     <row r="33" ht="13.7" customHeight="1" s="17">
       <c r="A33" s="16" t="inlineStr">
@@ -1425,6 +1432,7 @@
           <t>14:51:58</t>
         </is>
       </c>
+      <c r="F33" s="23" t="inlineStr"/>
     </row>
     <row r="34" ht="13.7" customHeight="1" s="17">
       <c r="A34" s="16" t="inlineStr">
@@ -1452,6 +1460,7 @@
           <t>14:53:21</t>
         </is>
       </c>
+      <c r="F34" s="23" t="inlineStr"/>
     </row>
     <row r="35" ht="13.7" customHeight="1" s="17">
       <c r="A35" s="16" t="inlineStr">
@@ -1479,6 +1488,7 @@
           <t>14:55:15</t>
         </is>
       </c>
+      <c r="F35" s="23" t="inlineStr"/>
     </row>
     <row r="36" ht="13.7" customHeight="1" s="17">
       <c r="A36" s="16" t="inlineStr">
@@ -1506,6 +1516,7 @@
           <t>14:56:22</t>
         </is>
       </c>
+      <c r="F36" s="23" t="inlineStr"/>
     </row>
     <row r="37" ht="13.7" customHeight="1" s="17">
       <c r="A37" s="16" t="inlineStr">
@@ -1533,6 +1544,7 @@
           <t>14:58:35</t>
         </is>
       </c>
+      <c r="F37" s="23" t="inlineStr"/>
     </row>
     <row r="38" ht="13.7" customHeight="1" s="17">
       <c r="A38" s="16" t="inlineStr">
@@ -1560,6 +1572,7 @@
           <t>15:02:55</t>
         </is>
       </c>
+      <c r="F38" s="23" t="inlineStr"/>
     </row>
     <row r="39" ht="13.7" customHeight="1" s="17">
       <c r="A39" s="16" t="inlineStr">
@@ -1587,6 +1600,7 @@
           <t>15:06:26</t>
         </is>
       </c>
+      <c r="F39" s="23" t="inlineStr"/>
     </row>
     <row r="40" ht="13.7" customHeight="1" s="17">
       <c r="A40" s="16" t="inlineStr">
@@ -1615,6 +1629,7 @@
           <t>15:07:42</t>
         </is>
       </c>
+      <c r="F40" s="23" t="inlineStr"/>
     </row>
     <row r="41" ht="13.7" customHeight="1" s="17">
       <c r="A41" s="16" t="inlineStr">
@@ -1644,6 +1659,7 @@
           <t>15:14:50</t>
         </is>
       </c>
+      <c r="F41" s="23" t="inlineStr"/>
     </row>
     <row r="42" ht="13.7" customHeight="1" s="17">
       <c r="A42" s="16" t="inlineStr">
@@ -1671,6 +1687,7 @@
           <t>15:15:23</t>
         </is>
       </c>
+      <c r="F42" s="23" t="inlineStr"/>
     </row>
     <row r="43" ht="13.7" customHeight="1" s="17">
       <c r="A43" s="16" t="inlineStr">
@@ -1700,6 +1717,7 @@
           <t>15:17:35</t>
         </is>
       </c>
+      <c r="F43" s="23" t="inlineStr"/>
     </row>
     <row r="44" ht="13.7" customHeight="1" s="17">
       <c r="A44" s="16" t="inlineStr">
@@ -1727,6 +1745,7 @@
           <t>15:20:04</t>
         </is>
       </c>
+      <c r="F44" s="23" t="inlineStr"/>
     </row>
     <row r="45" ht="13.7" customHeight="1" s="17">
       <c r="A45" s="16" t="inlineStr">
@@ -1754,6 +1773,7 @@
           <t>15:20:28</t>
         </is>
       </c>
+      <c r="F45" s="23" t="inlineStr"/>
     </row>
     <row r="46" ht="13.7" customHeight="1" s="17">
       <c r="A46" s="16" t="inlineStr">
@@ -1781,6 +1801,7 @@
           <t>16:06:55</t>
         </is>
       </c>
+      <c r="F46" s="23" t="inlineStr"/>
     </row>
     <row r="47" ht="13.7" customHeight="1" s="17">
       <c r="A47" s="16" t="inlineStr">
@@ -1808,33 +1829,91 @@
           <t>16:08:23</t>
         </is>
       </c>
+      <c r="F47" s="23" t="inlineStr"/>
     </row>
     <row r="48" ht="13.7" customHeight="1" s="17">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="A48" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B48" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C48" s="16" t="inlineStr">
         <is>
           <t>Мяу3</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>10.12.24</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E48" s="16" t="inlineStr">
         <is>
           <t>16:11:03</t>
         </is>
       </c>
+      <c r="F48" s="23" t="inlineStr"/>
+    </row>
+    <row r="49" ht="13.7" customHeight="1" s="17">
+      <c r="A49" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B49" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C49" s="16" t="inlineStr">
+        <is>
+          <t>Что мяу?</t>
+        </is>
+      </c>
+      <c r="D49" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E49" s="16" t="inlineStr">
+        <is>
+          <t>16:23:20</t>
+        </is>
+      </c>
+      <c r="F49" s="23" t="inlineStr"/>
+    </row>
+    <row r="50" ht="13.7" customHeight="1" s="17">
+      <c r="A50" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B50" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C50" s="16" t="inlineStr">
+        <is>
+          <t>Что</t>
+        </is>
+      </c>
+      <c r="D50" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E50" s="16" t="inlineStr">
+        <is>
+          <t>16:29:55</t>
+        </is>
+      </c>
+      <c r="F50" s="23" t="inlineStr"/>
     </row>
     <row r="123" ht="13.5" customHeight="1" s="17"/>
     <row r="1048545" ht="12.75" customHeight="1" s="17"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1914,6 +1914,33 @@
         </is>
       </c>
       <c r="F50" s="23" t="inlineStr"/>
+    </row>
+    <row r="51" ht="13.7" customHeight="1" s="17">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ладно?</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>16:58:23</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="13.5" customHeight="1" s="17"/>
     <row r="1048545" ht="12.75" customHeight="1" s="17"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1916,31 +1916,60 @@
       <c r="F50" s="23" t="inlineStr"/>
     </row>
     <row r="51" ht="13.7" customHeight="1" s="17">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="A51" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B51" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C51" s="16" t="inlineStr">
         <is>
           <t>Ладно?</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>10.12.24</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="D51" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E51" s="16" t="inlineStr">
         <is>
           <t>16:58:23</t>
         </is>
       </c>
+      <c r="F51" s="23" t="inlineStr"/>
+    </row>
+    <row r="52" ht="13.7" customHeight="1" s="17">
+      <c r="A52" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B52" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C52" s="16" t="inlineStr">
+        <is>
+          <t>Что толщ</t>
+        </is>
+      </c>
+      <c r="D52" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E52" s="16" t="inlineStr">
+        <is>
+          <t>17:17:23</t>
+        </is>
+      </c>
+      <c r="F52" s="23" t="inlineStr"/>
     </row>
     <row r="123" ht="13.5" customHeight="1" s="17"/>
     <row r="1048545" ht="12.75" customHeight="1" s="17"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -51,7 +51,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -76,6 +76,12 @@
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFEEEE"/>
+        <bgColor rgb="FFAFEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -96,7 +102,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -169,6 +175,7 @@
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1970,6 +1977,101 @@
         </is>
       </c>
       <c r="F52" s="23" t="inlineStr"/>
+    </row>
+    <row r="53" ht="13.7" customHeight="1" s="17">
+      <c r="A53" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B53" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C53" s="16" t="inlineStr">
+        <is>
+          <t>Для
+Еще</t>
+        </is>
+      </c>
+      <c r="D53" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E53" s="16" t="inlineStr">
+        <is>
+          <t>20:02:09</t>
+        </is>
+      </c>
+      <c r="F53" s="23" t="inlineStr"/>
+    </row>
+    <row r="54" ht="13.7" customHeight="1" s="17">
+      <c r="A54" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B54" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C54" s="16" t="inlineStr">
+        <is>
+          <t>Датчик=0/1 (выключен)
+Бат:6.08в(10%) T:+33C</t>
+        </is>
+      </c>
+      <c r="D54" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E54" s="16" t="inlineStr">
+        <is>
+          <t>20:14:04</t>
+        </is>
+      </c>
+      <c r="F54" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бат! </t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="13.7" customHeight="1" s="17">
+      <c r="A55" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B55" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C55" s="16" t="inlineStr">
+        <is>
+          <t>Датчик=0/1 (выключен)
+Бат:6.08в(90%) T:+33C</t>
+        </is>
+      </c>
+      <c r="D55" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E55" s="16" t="inlineStr">
+        <is>
+          <t>20:14:55</t>
+        </is>
+      </c>
+      <c r="F55" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бат! </t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="13.5" customHeight="1" s="17"/>
     <row r="1048545" ht="12.75" customHeight="1" s="17"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2070,6 +2070,60 @@
       <c r="F55" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">Бат! </t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="13.7" customHeight="1" s="17">
+      <c r="A56" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B56" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C56" s="16" t="inlineStr">
+        <is>
+          <t>Что mo</t>
+        </is>
+      </c>
+      <c r="D56" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E56" s="16" t="inlineStr">
+        <is>
+          <t>21:12:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="13.7" customHeight="1" s="17">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Weeks a week</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21:44:48</t>
         </is>
       </c>
     </row>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2101,29 +2101,111 @@
       </c>
     </row>
     <row r="57" ht="13.7" customHeight="1" s="17">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="A57" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B57" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C57" s="16" t="inlineStr">
         <is>
           <t>Weeks a week</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>10.12.24</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="D57" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E57" s="16" t="inlineStr">
         <is>
           <t>21:44:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="13.7" customHeight="1" s="17">
+      <c r="A58" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B58" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C58" s="16" t="inlineStr">
+        <is>
+          <t>Что
+Зачем</t>
+        </is>
+      </c>
+      <c r="D58" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E58" s="16" t="inlineStr">
+        <is>
+          <t>22:23:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="13.7" customHeight="1" s="17">
+      <c r="A59" s="16" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B59" s="16" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C59" s="16" t="inlineStr">
+        <is>
+          <t>Что</t>
+        </is>
+      </c>
+      <c r="D59" s="16" t="inlineStr">
+        <is>
+          <t>10.12.24</t>
+        </is>
+      </c>
+      <c r="E59" s="16" t="inlineStr">
+        <is>
+          <t>22:43:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="13.7" customHeight="1" s="17">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Что " что "?</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.12.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13:40:03</t>
         </is>
       </c>
     </row>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -431,29 +431,111 @@
       </c>
     </row>
     <row r="2" ht="13.7" customHeight="1" s="12">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>Вова</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>Мяво</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr">
         <is>
           <t>13.12.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>14:08:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.7" customHeight="1" s="12">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>Мяимямяяя</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>13.12.24</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>14:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="13.7" customHeight="1" s="12">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Мяммям</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>13.12.24</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>14:47:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="13.7" customHeight="1" s="12">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Что?
+Чттоо</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.12.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14:55:57</t>
         </is>
       </c>
     </row>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -512,30 +512,116 @@
       </c>
     </row>
     <row r="5" ht="13.7" customHeight="1" s="12">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>Вова</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>Что?
 Чттоо</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>13.12.24</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="11" t="inlineStr">
         <is>
           <t>14:55:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.7" customHeight="1" s="12">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>002B00370039003800370035003300320034003700320034</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>Пппааа
+Ощущение</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>13.12.24</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>15:43:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="13.7" customHeight="1" s="12">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Что
+Это
+Аааа
+%%$</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>13.12.24</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>15:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="13.7" customHeight="1" s="12">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Опа
+Пав</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.12.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15:45:58</t>
         </is>
       </c>
     </row>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -44,12 +44,18 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,7 +77,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -116,6 +122,7 @@
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -456,6 +463,7 @@
           <t>14:08:34</t>
         </is>
       </c>
+      <c r="F2" s="14" t="inlineStr"/>
     </row>
     <row r="3" ht="13.7" customHeight="1" s="12">
       <c r="A3" s="11" t="inlineStr">
@@ -483,6 +491,7 @@
           <t>14:45:38</t>
         </is>
       </c>
+      <c r="F3" s="14" t="inlineStr"/>
     </row>
     <row r="4" ht="13.7" customHeight="1" s="12">
       <c r="A4" s="11" t="inlineStr">
@@ -510,6 +519,7 @@
           <t>14:47:16</t>
         </is>
       </c>
+      <c r="F4" s="14" t="inlineStr"/>
     </row>
     <row r="5" ht="13.7" customHeight="1" s="12">
       <c r="A5" s="11" t="inlineStr">
@@ -538,6 +548,7 @@
           <t>14:55:57</t>
         </is>
       </c>
+      <c r="F5" s="14" t="inlineStr"/>
     </row>
     <row r="6" ht="13.7" customHeight="1" s="12">
       <c r="A6" s="11" t="inlineStr">
@@ -566,6 +577,7 @@
           <t>15:43:35</t>
         </is>
       </c>
+      <c r="F6" s="14" t="inlineStr"/>
     </row>
     <row r="7" ht="13.7" customHeight="1" s="12">
       <c r="A7" s="11" t="inlineStr">
@@ -596,34 +608,94 @@
           <t>15:44:51</t>
         </is>
       </c>
+      <c r="F7" s="14" t="inlineStr"/>
     </row>
     <row r="8" ht="13.7" customHeight="1" s="12">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>+79875324724</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>Вова</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Опа
 Пав</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="11" t="inlineStr">
         <is>
           <t>13.12.24</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>15:45:58</t>
         </is>
       </c>
+      <c r="F8" s="14" t="inlineStr"/>
+    </row>
+    <row r="9" ht="13.7" customHeight="1" s="12">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t>Мяяяяя</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>13.12.24</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>15:08:02</t>
+        </is>
+      </c>
+      <c r="F9" s="14" t="inlineStr"/>
+    </row>
+    <row r="10" ht="13.7" customHeight="1" s="12">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Мяу
+Д
+Мяу</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>14.12.24</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>15:08:02</t>
+        </is>
+      </c>
+      <c r="F10" s="14" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -697,6 +697,35 @@
       </c>
       <c r="F10" s="14" t="inlineStr"/>
     </row>
+    <row r="11" ht="13.7" customHeight="1" s="12">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>+79875324724</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Вова</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>П
+Взнос
+Jeep</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.12.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15:19:49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Files/sms_log.xlsx
+++ b/Files/sms_log.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -405,7 +405,7 @@
     <col width="11.53" customWidth="1" style="7" min="16384" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="12">
+    <row r="1" ht="13.7" customHeight="1" s="12">
       <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Номер телефона</t>
@@ -437,295 +437,30 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="13.7" customHeight="1" s="12">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>Мяво</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>13.12.24</t>
-        </is>
-      </c>
-      <c r="E2" s="11" t="inlineStr">
-        <is>
-          <t>14:08:34</t>
-        </is>
-      </c>
-      <c r="F2" s="14" t="inlineStr"/>
-    </row>
-    <row r="3" ht="13.7" customHeight="1" s="12">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>Мяимямяяя</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>13.12.24</t>
-        </is>
-      </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>14:45:38</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr"/>
-    </row>
-    <row r="4" ht="13.7" customHeight="1" s="12">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>Мяммям</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>13.12.24</t>
-        </is>
-      </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>14:47:16</t>
-        </is>
-      </c>
-      <c r="F4" s="14" t="inlineStr"/>
-    </row>
-    <row r="5" ht="13.7" customHeight="1" s="12">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>Что?
-Чттоо</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>13.12.24</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>14:55:57</t>
-        </is>
-      </c>
-      <c r="F5" s="14" t="inlineStr"/>
-    </row>
-    <row r="6" ht="13.7" customHeight="1" s="12">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>002B00370039003800370035003300320034003700320034</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>002B00370039003800370035003300320034003700320034</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>Пппааа
-Ощущение</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>13.12.24</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>15:43:35</t>
-        </is>
-      </c>
-      <c r="F6" s="14" t="inlineStr"/>
-    </row>
-    <row r="7" ht="13.7" customHeight="1" s="12">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>Что
-Это
-Аааа
-%%$</t>
-        </is>
-      </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>13.12.24</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>15:44:51</t>
-        </is>
-      </c>
-      <c r="F7" s="14" t="inlineStr"/>
-    </row>
-    <row r="8" ht="13.7" customHeight="1" s="12">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>Опа
-Пав</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>13.12.24</t>
-        </is>
-      </c>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>15:45:58</t>
-        </is>
-      </c>
-      <c r="F8" s="14" t="inlineStr"/>
-    </row>
-    <row r="9" ht="13.7" customHeight="1" s="12">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="inlineStr">
-        <is>
-          <t>Мяяяяя</t>
-        </is>
-      </c>
-      <c r="D9" s="11" t="inlineStr">
-        <is>
-          <t>13.12.24</t>
-        </is>
-      </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>15:08:02</t>
-        </is>
-      </c>
-      <c r="F9" s="14" t="inlineStr"/>
-    </row>
-    <row r="10" ht="13.7" customHeight="1" s="12">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C10" s="11" t="inlineStr">
-        <is>
-          <t>Мяу
-Д
-Мяу</t>
-        </is>
-      </c>
-      <c r="D10" s="11" t="inlineStr">
-        <is>
-          <t>14.12.24</t>
-        </is>
-      </c>
-      <c r="E10" s="11" t="inlineStr">
-        <is>
-          <t>15:08:02</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr"/>
-    </row>
-    <row r="11" ht="13.7" customHeight="1" s="12">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>+79875324724</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Вова</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>П
-Взнос
-Jeep</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14.12.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15:19:49</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" s="12"/>
+    <row r="3" s="12"/>
+    <row r="4" s="12"/>
+    <row r="5" s="12"/>
+    <row r="6" s="12"/>
+    <row r="7" s="12"/>
+    <row r="8" s="12"/>
+    <row r="9" s="12"/>
+    <row r="10" s="12"/>
+    <row r="11" s="12"/>
+    <row r="12" s="12"/>
+    <row r="13" s="12"/>
+    <row r="14" s="12"/>
+    <row r="15" s="12"/>
+    <row r="16" s="12"/>
+    <row r="17" s="12"/>
+    <row r="18" s="12"/>
+    <row r="19" s="12"/>
+    <row r="20" s="12"/>
+    <row r="21" s="12"/>
+    <row r="22" s="12"/>
+    <row r="23" s="12"/>
+    <row r="24" s="12"/>
+    <row r="25" s="12"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
